--- a/TestOutPut/HybridResults.xlsx
+++ b/TestOutPut/HybridResults.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="8940" windowWidth="19815" xWindow="480" yWindow="390"/>
+    <workbookView windowHeight="8940" windowWidth="19815" xWindow="480" yWindow="390"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" r:id="rId1" sheetId="1"/>
     <sheet name="ApplicationLogin" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="Suppliers" r:id="rId3" sheetId="3"/>
+    <sheet name="StockItems" r:id="rId4" sheetId="4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="126">
   <si>
     <t>TCID</t>
   </si>
@@ -178,6 +179,216 @@
   </si>
   <si>
     <t>closeBrowser</t>
+  </si>
+  <si>
+    <t>wait for supplier link</t>
+  </si>
+  <si>
+    <t>//body/div[2]/div[2]/div[1]/div[1]/ul[1]/li[3]/a[1]</t>
+  </si>
+  <si>
+    <t>Click on supplier link</t>
+  </si>
+  <si>
+    <t>wait for add + Icon button</t>
+  </si>
+  <si>
+    <t>(//span[@data-caption='Add'])[1]</t>
+  </si>
+  <si>
+    <t>Click on add icon</t>
+  </si>
+  <si>
+    <t>wait for sopplier number</t>
+  </si>
+  <si>
+    <t>Capture supplier number</t>
+  </si>
+  <si>
+    <t>captureData</t>
+  </si>
+  <si>
+    <t>x_Supplier_Number</t>
+  </si>
+  <si>
+    <t>Enter supplier name</t>
+  </si>
+  <si>
+    <t>Lg suppliers</t>
+  </si>
+  <si>
+    <t>Enter address</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Enter city</t>
+  </si>
+  <si>
+    <t>Kukatpally</t>
+  </si>
+  <si>
+    <t>Enter country</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Enter contact person</t>
+  </si>
+  <si>
+    <t>Lg MD</t>
+  </si>
+  <si>
+    <t>Enter phone number</t>
+  </si>
+  <si>
+    <t>54789547878</t>
+  </si>
+  <si>
+    <t>Enter email</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>Enter mobile number</t>
+  </si>
+  <si>
+    <t>5478954562</t>
+  </si>
+  <si>
+    <t>Enter notes</t>
+  </si>
+  <si>
+    <t>Supplying lg goods</t>
+  </si>
+  <si>
+    <t>click add button</t>
+  </si>
+  <si>
+    <t>x_Supplier_Name</t>
+  </si>
+  <si>
+    <t>x_Address</t>
+  </si>
+  <si>
+    <t>x_City</t>
+  </si>
+  <si>
+    <t>x_Country</t>
+  </si>
+  <si>
+    <t>x_Contact_Person</t>
+  </si>
+  <si>
+    <t>x_Phone_Number</t>
+  </si>
+  <si>
+    <t>x__Email</t>
+  </si>
+  <si>
+    <t>x_Mobile_Number</t>
+  </si>
+  <si>
+    <t>x_Notes</t>
+  </si>
+  <si>
+    <t>btnAction</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'OK!')]</t>
+  </si>
+  <si>
+    <t>Wait for ok button</t>
+  </si>
+  <si>
+    <t>click alert ok button</t>
+  </si>
+  <si>
+    <t>//body/div[17]/div[2]/div[1]/div[4]/div[2]/button[1]</t>
+  </si>
+  <si>
+    <t>validate table</t>
+  </si>
+  <si>
+    <t>suppliertable</t>
+  </si>
+  <si>
+    <t>Locatortype</t>
+  </si>
+  <si>
+    <t>Locatorvalue</t>
+  </si>
+  <si>
+    <t>testData</t>
+  </si>
+  <si>
+    <t>Launch Browser</t>
+  </si>
+  <si>
+    <t>Launch url in Browser</t>
+  </si>
+  <si>
+    <t>wait For Username</t>
+  </si>
+  <si>
+    <t>wait for Login button</t>
+  </si>
+  <si>
+    <t>click login button</t>
+  </si>
+  <si>
+    <t>wait for stock items</t>
+  </si>
+  <si>
+    <t>//*[@id='mi_a_stock_items']</t>
+  </si>
+  <si>
+    <t>Mouse Click</t>
+  </si>
+  <si>
+    <t>mouseOver</t>
+  </si>
+  <si>
+    <t>wait for add button</t>
+  </si>
+  <si>
+    <t>Click on add icon button</t>
+  </si>
+  <si>
+    <t>wait for Category Name</t>
+  </si>
+  <si>
+    <t>x_Category_Name</t>
+  </si>
+  <si>
+    <t>Enter Category Name</t>
+  </si>
+  <si>
+    <t>click on add button</t>
+  </si>
+  <si>
+    <t>wait for confirm ok button</t>
+  </si>
+  <si>
+    <t>click confirm ok button</t>
+  </si>
+  <si>
+    <t>wait for alert ok button</t>
+  </si>
+  <si>
+    <t>(//*[text()='OK'])[6]</t>
+  </si>
+  <si>
+    <t>click on alert ok</t>
+  </si>
+  <si>
+    <t>stockTable</t>
+  </si>
+  <si>
+    <t>Mens</t>
   </si>
   <si>
     <t>Pass</t>
@@ -191,7 +402,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="38">
+  <fonts count="146">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,13 +617,661 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
     <font>
@@ -442,7 +1301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -450,15 +1309,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="152">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -493,6 +1373,114 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -789,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -824,8 +1812,8 @@
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s" s="33">
-        <v>54</v>
+      <c r="D2" t="s" s="39">
+        <v>124</v>
       </c>
     </row>
     <row ht="18.75" r="3" spans="1:4">
@@ -836,10 +1824,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s" s="34">
-        <v>55</v>
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="103">
+        <v>124</v>
       </c>
     </row>
     <row ht="18.75" r="4" spans="1:4">
@@ -850,10 +1838,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s" s="35">
-        <v>55</v>
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="149">
+        <v>124</v>
       </c>
     </row>
     <row ht="18.75" r="5" spans="1:4">
@@ -866,8 +1854,8 @@
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="36">
-        <v>55</v>
+      <c r="D5" t="s" s="150">
+        <v>125</v>
       </c>
     </row>
     <row ht="18.75" r="6" spans="1:4">
@@ -880,8 +1868,8 @@
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s" s="37">
-        <v>55</v>
+      <c r="D6" t="s" s="151">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -893,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -942,8 +1930,8 @@
       <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s" s="4">
-        <v>54</v>
+      <c r="F2" t="s" s="10">
+        <v>124</v>
       </c>
     </row>
     <row ht="15.75" r="3" spans="1:6">
@@ -962,8 +1950,8 @@
       <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s" s="6">
-        <v>54</v>
+      <c r="F3" t="s" s="12">
+        <v>124</v>
       </c>
     </row>
     <row ht="15.75" r="4" spans="1:6">
@@ -982,8 +1970,8 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="8">
-        <v>54</v>
+      <c r="F4" t="s" s="14">
+        <v>124</v>
       </c>
     </row>
     <row ht="15.75" r="5" spans="1:6">
@@ -1002,8 +1990,8 @@
       <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s" s="10">
-        <v>54</v>
+      <c r="F5" t="s" s="16">
+        <v>124</v>
       </c>
     </row>
     <row ht="15.75" r="6" spans="1:6">
@@ -1022,8 +2010,8 @@
       <c r="E6" s="3">
         <v>10</v>
       </c>
-      <c r="F6" t="s" s="12">
-        <v>54</v>
+      <c r="F6" t="s" s="18">
+        <v>124</v>
       </c>
     </row>
     <row ht="15.75" r="7" spans="1:6">
@@ -1042,8 +2030,8 @@
       <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F7" t="s" s="14">
-        <v>54</v>
+      <c r="F7" t="s" s="20">
+        <v>124</v>
       </c>
     </row>
     <row ht="15.75" r="8" spans="1:6">
@@ -1062,8 +2050,8 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="16">
-        <v>54</v>
+      <c r="F8" t="s" s="22">
+        <v>124</v>
       </c>
     </row>
     <row ht="15.75" r="9" spans="1:6">
@@ -1082,8 +2070,8 @@
       <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s" s="18">
-        <v>54</v>
+      <c r="F9" t="s" s="24">
+        <v>124</v>
       </c>
     </row>
     <row ht="15.75" r="10" spans="1:6">
@@ -1102,8 +2090,8 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="20">
-        <v>54</v>
+      <c r="F10" t="s" s="26">
+        <v>124</v>
       </c>
     </row>
     <row ht="15.75" r="11" spans="1:6">
@@ -1122,8 +2110,8 @@
       <c r="E11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F11" t="s" s="22">
-        <v>54</v>
+      <c r="F11" t="s" s="28">
+        <v>124</v>
       </c>
     </row>
     <row ht="15.75" r="12" spans="1:6">
@@ -1142,8 +2130,8 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="24">
-        <v>54</v>
+      <c r="F12" t="s" s="30">
+        <v>124</v>
       </c>
     </row>
     <row ht="15.75" r="13" spans="1:6">
@@ -1162,8 +2150,8 @@
       <c r="E13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F13" t="s" s="26">
-        <v>54</v>
+      <c r="F13" t="s" s="32">
+        <v>124</v>
       </c>
     </row>
     <row ht="15.75" r="14" spans="1:6">
@@ -1182,8 +2170,8 @@
       <c r="E14" s="3">
         <v>10</v>
       </c>
-      <c r="F14" t="s" s="28">
-        <v>54</v>
+      <c r="F14" t="s" s="34">
+        <v>124</v>
       </c>
     </row>
     <row ht="15.75" r="15" spans="1:6">
@@ -1202,8 +2190,8 @@
       <c r="E15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F15" t="s" s="30">
-        <v>54</v>
+      <c r="F15" t="s" s="36">
+        <v>124</v>
       </c>
     </row>
     <row ht="15.75" r="16" spans="1:6">
@@ -1222,8 +2210,8 @@
       <c r="E16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F16" t="s" s="32">
-        <v>54</v>
+      <c r="F16" t="s" s="38">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1234,12 +2222,1189 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.42578125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.7109375" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.5703125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="53.85546875" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="31.85546875" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.85546875" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row ht="21" r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row ht="15.75" r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s" s="40">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s" s="42">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="44">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s" s="46">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="5">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="48">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s" s="50">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="52">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s" s="54">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="5">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="56">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s" s="58">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="5">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="60">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s" s="62">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="5">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="64">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s" s="66">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="16" spans="1:6">
+      <c r="A16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="5">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s" s="68">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s" s="70">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="18" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s" s="72">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" t="s" s="74">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s" s="76">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="21" spans="1:6">
+      <c r="A21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s" s="78">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="22" spans="1:6">
+      <c r="A22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" t="s" s="80">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="23" spans="1:6">
+      <c r="A23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" t="s" s="82">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="24" spans="1:6">
+      <c r="A24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s" s="84">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="25" spans="1:6">
+      <c r="A25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s" s="86">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="26" spans="1:6">
+      <c r="A26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s" s="88">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="27" spans="1:6">
+      <c r="A27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s" s="90">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="28" spans="1:6">
+      <c r="A28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="5">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s" s="92">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="29" spans="1:6">
+      <c r="A29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s" s="94">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="30" spans="1:6">
+      <c r="A30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="5">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s" s="96">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="31" spans="1:6">
+      <c r="A31" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s" s="98">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="32" spans="1:6">
+      <c r="A32" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="5">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s" s="100">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="15.75" r="33" spans="1:6">
+      <c r="A33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" t="s" s="102">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E24"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="31.7109375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.140625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="40.140625" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="36.28515625" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row ht="18.75" r="1" spans="1:6">
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row ht="18.75" r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s" s="104">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="18.75" r="3" spans="1:6">
+      <c r="A3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s" s="106">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="18.75" r="4" spans="1:6">
+      <c r="A4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="8">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="108">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="18.75" r="5" spans="1:6">
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s" s="110">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="18.75" r="6" spans="1:6">
+      <c r="A6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="8">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="112">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="18.75" r="7" spans="1:6">
+      <c r="A7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s" s="114">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="18.75" r="8" spans="1:6">
+      <c r="A8" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="8">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="116">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="18.75" r="9" spans="1:6">
+      <c r="A9" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s" s="118">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="18.75" r="10" spans="1:6">
+      <c r="A10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s" s="120">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="18.75" r="11" spans="1:6">
+      <c r="A11" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="9">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s" s="122">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="18.75" r="12" spans="1:6">
+      <c r="A12" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s" s="124">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="18.75" r="13" spans="1:6">
+      <c r="A13" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="9">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s" s="126">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="18.75" r="14" spans="1:6">
+      <c r="A14" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s" s="128">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="18.75" r="15" spans="1:6">
+      <c r="A15" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="9">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s" s="130">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="18.75" r="16" spans="1:6">
+      <c r="A16" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" t="s" s="132">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="18.75" r="17" spans="1:6">
+      <c r="A17" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="9">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s" s="134">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="18.75" r="18" spans="1:6">
+      <c r="A18" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s" s="136">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="18.75" r="19" spans="1:6">
+      <c r="A19" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="9">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s" s="138">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="18.75" r="20" spans="1:6">
+      <c r="A20" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s" s="140">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="18.75" r="21" spans="1:6">
+      <c r="A21" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="9">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s" s="142">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="18.75" r="22" spans="1:6">
+      <c r="A22" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s" s="144">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="18.75" r="23" spans="1:6">
+      <c r="A23" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" t="s" s="146">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="18.75" r="24" spans="1:6">
+      <c r="A24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s" s="148">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>